--- a/08kappa/unauthorized_tagger_dataframe_kappa.xlsx
+++ b/08kappa/unauthorized_tagger_dataframe_kappa.xlsx
@@ -22,28 +22,28 @@
     <t>kappa</t>
   </si>
   <si>
+    <t>kshatkus@purdue.edu</t>
+  </si>
+  <si>
+    <t>tateh@purdue.edu</t>
+  </si>
+  <si>
+    <t>chen1331@purdue.edu</t>
+  </si>
+  <si>
+    <t>shen147@purdue.edu</t>
+  </si>
+  <si>
+    <t>tdeters@purdue.edu</t>
+  </si>
+  <si>
+    <t>lin551@purdue.edu</t>
+  </si>
+  <si>
     <t>zhao393@purdue.edu</t>
   </si>
   <si>
-    <t>chen1331@purdue.edu</t>
-  </si>
-  <si>
-    <t>kshatkus@purdue.edu</t>
-  </si>
-  <si>
-    <t>tdeters@purdue.edu</t>
-  </si>
-  <si>
     <t>cwilhigh@purdue.edu</t>
-  </si>
-  <si>
-    <t>shen147@purdue.edu</t>
-  </si>
-  <si>
-    <t>lin551@purdue.edu</t>
-  </si>
-  <si>
-    <t>tateh@purdue.edu</t>
   </si>
 </sst>
 </file>
@@ -423,7 +423,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -434,7 +434,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -445,7 +445,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -456,7 +456,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.805970149253731</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -467,7 +467,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.8</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -478,7 +478,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.805970149253731</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -500,7 +500,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.805970149253731</v>
+        <v>0.8</v>
       </c>
     </row>
   </sheetData>
